--- a/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\PRE\worklog\Project Process library\Weekly Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HanSir\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>MORNING</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>« Every Monday</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒安标准人寿无纸化支持</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>平顶山银行无纸化</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -631,10 +643,15 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -655,15 +672,10 @@
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -947,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -963,11 +975,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -976,14 +988,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1025,16 +1037,16 @@
         <v>6</v>
       </c>
       <c r="I3" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="31"/>
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="45">
-        <v>2016</v>
-      </c>
-      <c r="M3" s="46"/>
+      <c r="L3" s="46">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="47"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1045,16 +1057,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="47">
+      <c r="G4" s="48">
         <f>DATE(L3,I3,1)</f>
-        <v>42401</v>
-      </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="49"/>
+        <v>42795</v>
+      </c>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1097,150 +1109,158 @@
         <f>B7</f>
         <v>42814</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" s="14"/>
       <c r="G6" s="35" t="str">
         <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
         <v/>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="35" t="str">
         <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
-        <v>42401</v>
-      </c>
-      <c r="I6" s="35">
+        <v/>
+      </c>
+      <c r="I6" s="35" t="str">
         <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
-        <v>42402</v>
+        <v/>
       </c>
       <c r="J6" s="35">
         <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
-        <v>42403</v>
+        <v>42795</v>
       </c>
       <c r="K6" s="35">
         <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
-        <v>42404</v>
+        <v>42796</v>
       </c>
       <c r="L6" s="35">
         <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
-        <v>42405</v>
+        <v>42797</v>
       </c>
       <c r="M6" s="35">
         <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
-        <v>42406</v>
+        <v>42798</v>
       </c>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="50">
+      <c r="B7" s="43">
         <f>E2</f>
         <v>42814</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
+      <c r="C7" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="40"/>
       <c r="G7" s="35">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
-        <v>42407</v>
+        <v>42799</v>
       </c>
       <c r="H7" s="35">
         <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
-        <v>42408</v>
+        <v>42800</v>
       </c>
       <c r="I7" s="35">
         <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
-        <v>42409</v>
+        <v>42801</v>
       </c>
       <c r="J7" s="35">
         <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
-        <v>42410</v>
+        <v>42802</v>
       </c>
       <c r="K7" s="35">
         <f t="shared" ref="K7:M7" si="0">IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
-        <v>42411</v>
+        <v>42803</v>
       </c>
       <c r="L7" s="35">
         <f t="shared" si="0"/>
-        <v>42412</v>
+        <v>42804</v>
       </c>
       <c r="M7" s="35">
         <f t="shared" si="0"/>
-        <v>42413</v>
+        <v>42805</v>
       </c>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
-      <c r="E8" s="41"/>
+      <c r="E8" s="40"/>
       <c r="G8" s="35">
         <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
-        <v>42414</v>
+        <v>42806</v>
       </c>
       <c r="H8" s="35">
         <f t="shared" ref="H8:M11" si="2">IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
-        <v>42415</v>
+        <v>42807</v>
       </c>
       <c r="I8" s="35">
         <f t="shared" si="2"/>
-        <v>42416</v>
+        <v>42808</v>
       </c>
       <c r="J8" s="35">
         <f t="shared" si="2"/>
-        <v>42417</v>
+        <v>42809</v>
       </c>
       <c r="K8" s="35">
         <f t="shared" si="2"/>
-        <v>42418</v>
+        <v>42810</v>
       </c>
       <c r="L8" s="35">
         <f t="shared" si="2"/>
-        <v>42419</v>
+        <v>42811</v>
       </c>
       <c r="M8" s="35">
         <f t="shared" si="2"/>
-        <v>42420</v>
+        <v>42812</v>
       </c>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
       <c r="F9" s="1"/>
       <c r="G9" s="35">
         <f t="shared" si="1"/>
-        <v>42421</v>
+        <v>42813</v>
       </c>
       <c r="H9" s="35">
         <f t="shared" si="2"/>
-        <v>42422</v>
+        <v>42814</v>
       </c>
       <c r="I9" s="35">
         <f t="shared" si="2"/>
-        <v>42423</v>
+        <v>42815</v>
       </c>
       <c r="J9" s="35">
         <f t="shared" si="2"/>
-        <v>42424</v>
+        <v>42816</v>
       </c>
       <c r="K9" s="35">
         <f t="shared" si="2"/>
-        <v>42425</v>
+        <v>42817</v>
       </c>
       <c r="L9" s="35">
         <f t="shared" si="2"/>
-        <v>42426</v>
+        <v>42818</v>
       </c>
       <c r="M9" s="35">
         <f t="shared" si="2"/>
-        <v>42427</v>
+        <v>42819</v>
       </c>
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
@@ -1249,27 +1269,27 @@
       <c r="B10" s="3"/>
       <c r="G10" s="35">
         <f t="shared" si="1"/>
-        <v>42428</v>
+        <v>42820</v>
       </c>
       <c r="H10" s="35">
         <f t="shared" si="2"/>
-        <v>42429</v>
-      </c>
-      <c r="I10" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J10" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K10" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L10" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>42821</v>
+      </c>
+      <c r="I10" s="35">
+        <f t="shared" si="2"/>
+        <v>42822</v>
+      </c>
+      <c r="J10" s="35">
+        <f t="shared" si="2"/>
+        <v>42823</v>
+      </c>
+      <c r="K10" s="35">
+        <f t="shared" si="2"/>
+        <v>42824</v>
+      </c>
+      <c r="L10" s="35">
+        <f t="shared" si="2"/>
+        <v>42825</v>
       </c>
       <c r="M10" s="35" t="str">
         <f t="shared" si="2"/>
@@ -1283,8 +1303,12 @@
         <f>B12</f>
         <v>42815</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>22</v>
+      </c>
       <c r="E11" s="14"/>
       <c r="G11" s="35" t="str">
         <f t="shared" si="1"/>
@@ -1318,13 +1342,17 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50">
+      <c r="B12" s="43">
         <f>B7+1</f>
         <v>42815</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="41"/>
+      <c r="C12" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="40"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
@@ -1336,7 +1364,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -1353,7 +1381,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1389,8 +1417,12 @@
         <f>B17</f>
         <v>42816</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>22</v>
+      </c>
       <c r="E16" s="14"/>
       <c r="F16" s="2"/>
       <c r="G16" s="18"/>
@@ -1399,18 +1431,22 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="50">
+      <c r="B17" s="43">
         <f>B12+1</f>
         <v>42816</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="41"/>
+      <c r="C17" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="40"/>
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -1418,7 +1454,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1431,30 +1467,38 @@
         <f>B22</f>
         <v>42817</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>22</v>
+      </c>
       <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="50">
+      <c r="B22" s="43">
         <f>B17+1</f>
         <v>42817</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
+      <c r="C22" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="40"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1467,30 +1511,38 @@
         <f>B27</f>
         <v>42818</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="8"/>
+      <c r="C26" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>22</v>
+      </c>
       <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="50">
+      <c r="B27" s="43">
         <f>B22+1</f>
         <v>42818</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
+      <c r="C27" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>23</v>
+      </c>
       <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1509,7 +1561,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="50">
+      <c r="B32" s="43">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -1519,14 +1571,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1545,7 +1597,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="50">
+      <c r="B37" s="43">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -1555,14 +1607,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1598,24 +1650,24 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="50">
+      <c r="B44" s="43">
         <f>B37+1</f>
         <v>42821</v>
       </c>
       <c r="C44" s="39"/>
-      <c r="D44" s="42"/>
+      <c r="D44" s="41"/>
       <c r="E44" s="15"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -1639,24 +1691,24 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="50">
+      <c r="B49" s="43">
         <f>B44+1</f>
         <v>42822</v>
       </c>
       <c r="C49" s="39"/>
-      <c r="D49" s="42"/>
+      <c r="D49" s="41"/>
       <c r="E49" s="15"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1680,24 +1732,24 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="50">
+      <c r="B54" s="43">
         <f>B49+1</f>
         <v>42823</v>
       </c>
       <c r="C54" s="39"/>
-      <c r="D54" s="42"/>
+      <c r="D54" s="41"/>
       <c r="E54" s="15"/>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="43"/>
       <c r="C55" s="12"/>
-      <c r="D55" s="42"/>
+      <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="44"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1716,24 +1768,24 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="50">
+      <c r="B59" s="43">
         <f>B54+1</f>
         <v>42824</v>
       </c>
       <c r="C59" s="39"/>
-      <c r="D59" s="42"/>
+      <c r="D59" s="41"/>
       <c r="E59" s="15"/>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="43"/>
       <c r="C60" s="12"/>
-      <c r="D60" s="43"/>
+      <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -1752,7 +1804,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="50">
+      <c r="B64" s="43">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -1762,14 +1814,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="43"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -1788,7 +1840,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="50">
+      <c r="B69" s="43">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -1798,14 +1850,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="43"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="51"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -1824,7 +1876,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="50">
+      <c r="B74" s="43">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -1834,25 +1886,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="43"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="51"/>
+      <c r="B76" s="44"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -1867,6 +1914,11 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
